--- a/Data/Transitions/19011971Translation.xlsx
+++ b/Data/Transitions/19011971Translation.xlsx
@@ -28,28 +28,28 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.53320505597968e-06, 152.0: 1.7512315030382182e-06, 166.0: 0.0012804097311139564, 893.0: 2.695599433924119e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9694199207584238, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.707294875854653e-06, 152.0: 1.7174174533209238e-06, 166.0: 0.0012804097311139564, 893.0: 2.8870568908995634e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9694640710996556, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
   </si>
   <si>
-    <t>{7.0: 0.8729846404621571}</t>
+    <t>{7.0: 0.8728545550605372}</t>
   </si>
   <si>
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9834797394932683}</t>
+    <t>{10.0: 0.9833918954386325}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -58,22 +58,22 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 0.8649253731343284, 636.0: 0.13910659595926958, 423.0: 0.0003786651141143844, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 0.8649253731343284, 636.0: 0.13910659595926958, 423.0: 0.00037866993652094233, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
-  </si>
-  <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{679.0: 0.4935636856368564}</t>
+  </si>
+  <si>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -85,22 +85,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 90.0: 0.020726036957175703, 246.0: 0.01620924641904141, 681.0: 0.009117688454576946, 741.0: 0.00817597294805933, 789.0: 0.003083001037889671}</t>
+    <t>{46.0: 0.9985255086994986, 90.0: 0.020748110743117883, 246.0: 0.01620029946546196, 681.0: 0.009122520122153777, 741.0: 0.008183965540227347, 789.0: 0.003089266097670683}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 1.0, 96.0: 1.0, 100.0: 1.0}</t>
@@ -115,7 +115,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4776395175392409, 887.0: 0.16674291064097774, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.4500769944503822e-07}</t>
+    <t>{834.0: 0.4776073061429195, 887.0: 0.16777216478464738, 210.0: 0.0007166887517041163, 82.0: 7.397259306884126e-07, 788.0: -1.2666322734806188e-07}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -127,40 +127,40 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8433678599502096, 888.0: 0.00464423766502221, 11.0: 1.0}</t>
+    <t>{73.0: 0.843363874567225, 888.0: 0.004644267467867127, 11.0: 1.0}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.11485198190981857}</t>
+    <t>{75.0: 1.0, 917.0: 0.11513761097960876}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 0.9559682317215604, 85.0: 0.0008874153926401118}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
-  </si>
-  <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7702550409471253, 172.0: 0.0016235303668609249}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352, 860.0: 1.0}</t>
+    <t>{77.0: 0.9559682317215604, 85.0: 0.0008843369396129144}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
+  </si>
+  <si>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7683130360947987, 172.0: 0.001613899422967784}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899, 860.0: 1.0}</t>
   </si>
   <si>
     <t>{83.0: 0.9809857854901237}</t>
@@ -169,10 +169,10 @@
     <t>{84.0: 0.6780888426426155}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 14.0: 0.0002688641098621682, 492.0: 0.0026003154391696127, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.35926979377591667, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 14.0: 0.00026984893800464113, 492.0: 0.0026000821520827133, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.3575941314214227, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -181,22 +181,22 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9452080012612006, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06, 681.0: 9.006419171195067e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9631975404793867, 92.0: 0.14327353129413814, 858.0: 0.004867508316901873, 543.0: 5.670020007169423e-05}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8567263079604118, 91.0: 0.036469355466693706, 858.0: 0.10635135141719504, 543.0: 0.0012388562095129924}</t>
+    <t>{90.0: 0.945186179595832, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06, 681.0: 8.982581474534481e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9632015604161517, 92.0: 0.14265477256351486, 858.0: 0.00453890631355781, 543.0: 5.288760464932781e-05}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8573450782432097, 91.0: 0.036469507672753906, 858.0: 0.09917164778675883, 543.0: 0.0011555539018070734}</t>
   </si>
   <si>
     <t>{95.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9710404310226443}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.2553326544136883}</t>
+    <t>{97.0: 0.9710736238304881}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.2577610059258017}</t>
   </si>
   <si>
     <t>{99.0: 1.0, 230.0: 0.004871395167575994}</t>
@@ -214,13 +214,13 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.0051215900457524475, 86.0: -0.002261437855314084, 505.0: 0.009292341386410228}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9907457807451502, 144.0: 0.00813773778970335}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.9431251500439995, 914.0: 0.7690138754556746}</t>
+    <t>{543.0: 0.38094016018725013, 86.0: 0.16828237337811877, 505.0: 0.009292341386410228}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9907507203229236, 144.0: 0.008137595844409649}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.9431027384420663, 914.0: 0.7690138754556746}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -229,19 +229,19 @@
     <t>{140.0: 1.0, 141.0: 0.6762181368326914, 762.0: 0.6762181368326914}</t>
   </si>
   <si>
-    <t>{142.0: 0.6799263461575976, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04625027587587877}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9097610131785987}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005095642723967638, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
-  </si>
-  <si>
-    <t>{146.0: 0.6945303597590754}</t>
+    <t>{142.0: 0.6798894445619768, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04275579021694319}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9132382007231626}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.0050954218128254096, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
+  </si>
+  <si>
+    <t>{146.0: 0.7349950571953114}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -256,10 +256,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014418315752371007}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014538334917061371}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -268,13 +268,13 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9610080910935691, 914.0: 0.224353720584676, 110.0: 0.027553839425323783}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.998719590268886, 893.0: 0.002102567558460813}</t>
-  </si>
-  <si>
-    <t>{167.0: 0.9994646680942184, 276.0: 0.33427367053250995}</t>
+    <t>{165.0: 0.9608848539888842, 914.0: 0.224353720584676, 110.0: 0.027564697048357754}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.998719590268886, 893.0: 0.0022519043749016595}</t>
+  </si>
+  <si>
+    <t>{167.0: 0.9994646680942184, 276.0: 0.3347597983936734}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -283,82 +283,82 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.639176144307317}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411903957421226, 81.0: 0.01441632528870922, 97.0: 0.0012500520481753916}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.7835236683980632, 404.0: 0.0017373964620257928, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 534.0: 0.23541138836901598, 298.0: 0.00019010513430182239, 857.0: 0.0003215414743882245, 204.0: 0.2906317482700138}</t>
+    <t>{171.0: 0.6418669800018848}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9405133606178667, 81.0: 0.0143799903907803, 97.0: 0.0012500947783605665}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.7835236683980632, 404.0: 0.0017518586832511837, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 534.0: 0.22203441818221284, 298.0: 0.00019241673586831533, 857.0: 0.0003216109966945569, 204.0: 0.29063140753383765}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
   </si>
   <si>
-    <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 7.843133003059537e-08}</t>
-  </si>
-  <si>
-    <t>{562.0: 0.3592698740972617, 211.0: 1.4761722271806034e-05}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.010227277857796856, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.5230077124655707, 410.0: 0.013059345529523958, 277.0: 9.06645735454864e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.43324506134744395, 410.0: 0.011502478560494897, 277.0: 7.985601660096247e-05}</t>
+    <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 7.837401167412974e-08}</t>
+  </si>
+  <si>
+    <t>{562.0: 0.3592698740972617, 211.0: 1.4839699675110984e-05}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.010311688422776206, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5251893935775226, 410.0: 0.012944785775882045, 277.0: 9.10094829154628e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.43808003714475646, 410.0: 0.011407656999434444, 277.0: 8.020256053443621e-05}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0016320956571106234, 180.0: 3.2668736665918865e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.3531151954847155, 277.0: 0.0023258105425374496, 180.0: 4.655443559202107e-05}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 171.0: 0.05832210449051426, 593.0: 0.04775675345927725, 778.0: 0.004088166085144559, 420.0: 4.639583461235061e-06, 212.0: 4.3421902644130816e-09, 681.0: 2.7873265846237817e-11}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.005331194363014698}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.1137254068871998, 917.0: 0.02802608503437404}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.6895515020580176, 857.0: 0.0047138691815834435}</t>
-  </si>
-  <si>
-    <t>{205.0: 1.0, 206.0: 0.013980982411382218, 785.0: 0.0020628566082206263, 578.0: 0.0029847546889122914}</t>
-  </si>
-  <si>
-    <t>{206.0: 0.8379801400742175, 785.0: 0.12364173122072085, 578.0: 0.17889766818286298}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.001633178723995504, 180.0: 5.360608468307691e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.35417140670326264, 277.0: 0.002325274110489172, 180.0: 7.632284149116312e-05}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 171.0: 0.05829453180140346, 593.0: 0.04764106985907185, 778.0: 0.004072641875622815, 420.0: 4.632000122945102e-06, 212.0: 4.324674369841023e-09, 681.0: 2.779949241380559e-11}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.003789048017917039}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.6935936080910996, 917.0: 0.01745654405787177}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.6895403773207588, 857.0: 0.004712124679206756}</t>
+  </si>
+  <si>
+    <t>{205.0: 1.0, 206.0: 0.013980982411382218, 785.0: 0.0021237924246233207, 578.0: 0.0029847546889122914}</t>
+  </si>
+  <si>
+    <t>{206.0: 0.8379801400742175, 785.0: 0.12729404995356577, 578.0: 0.17889766818286298}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.00829306274851835}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.00830192132519551}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -367,13 +367,13 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.17952896245359123}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.13360763748597862}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
@@ -382,10 +382,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{627.0: 1.0, 626.0: 0.31248670495639225}</t>
@@ -394,16 +394,16 @@
     <t>{225.0: 1.0}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.00616722491106951}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.0045897237913669515}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
   </si>
   <si>
-    <t>{230.0: 0.995128604832424, 581.0: 0.0012232932029192095, 144.0: 4.257908126080382e-05, 303.0: 0.0001474394666408979}</t>
+    <t>{230.0: 0.995128604832424, 581.0: 0.0012236121765584547, 144.0: 4.2616672245835936e-05, 303.0: 0.00014770204805967065}</t>
   </si>
   <si>
     <t>{231.0: 1.0}</t>
@@ -415,25 +415,25 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
   </si>
   <si>
-    <t>{102.0: 0.1815575728619207, 253.0: 0.002564069085859641}</t>
+    <t>{102.0: 0.1815575728619207, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986, 738.0: 0.007169576059850374, 228.0: 0.007169576059850374}</t>
@@ -442,10 +442,10 @@
     <t>{244.0: 0.9799247176913425, 565.0: 0.006093046099985501, 564.0: 0.00018847476794044198, 84.0: 6.004536785832098e-05}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.004275200369087309}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.6399709972447439, 46.0: 0.001474491300501327, 90.0: 3.0605488714081074e-05, 681.0: 1.3463804569664716e-05, 741.0: 1.2073202817571368e-05, 789.0: 4.552570936044996e-06}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.0030589631511635878}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.6402292990281426, 46.0: 0.001474491300501327, 90.0: 3.0638084381449914e-05, 681.0: 1.3470939341632867e-05, 741.0: 1.2085005227742688e-05, 789.0: 4.561822353323513e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -454,19 +454,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7306727153256398, 600.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 144.0: 0.010139449231353, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.72999062888997, 600.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 144.0: 0.010139319304448152, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -484,31 +484,31 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.001550339549744622}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686, 897.0: 0.0011207192279457136}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9987689782519491, 479.0: 0.02114577354250803, 942.0: 0.0001945930080598899}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0015671624197870367}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092, 897.0: 0.0010388882468031276}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9987689782519491, 479.0: 0.020519381779662598, 942.0: 0.00018904612772049995}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -517,13 +517,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.39523576063596144, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4394436572269415e-05}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655973099295898, 167.0: 0.0005353319057815846}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6420850419838438, 180.0: 0.012852253519766512}</t>
+    <t>{686.0: 0.3952431228545757, 921.0: 0.009641342074816815, 77.0: 0.026278906797477224, 85.0: 2.4309812023568202e-05}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6651112763571226, 167.0: 0.0005353319057815846}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6419369495283576, 180.0: 0.021070398464061755}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -532,7 +532,7 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -541,25 +541,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01556438742580718, 917.0: -0.0003916664222672209}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.22981246236489283, 142.0: 0.003522217017690445, 788.0: 0.026298366265383358, 44.0: 3.616660946846924e-07}</t>
+    <t>{285.0: 1.0, 311.0: 0.11075451297453748, 917.0: 0.0027874983459971626}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.23223840299411974, 142.0: 0.0035226258372721515, 788.0: 0.026172626732387502, 44.0: 3.5774486716174825e-07}</t>
   </si>
   <si>
     <t>{287.0: 1.0, 847.0: 0.005988023952095809}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069, 8.0: 1.0, 839.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296, 8.0: 1.0, 839.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -571,52 +571,52 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9985641467881747, 298.0: 0.48551558635511016, 476.0: 7.433689011226494e-05, 595.0: 7.01071766849619e-06, 534.0: 2.42150526141751e-05}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.01300180256407217, 291.0: 0.0008901874285448801}</t>
+    <t>{297.0: 0.998555981419779, 298.0: 0.4826749831341847, 476.0: 7.508015578204456e-05, 595.0: 7.0379530324918975e-06, 534.0: 2.545540063657274e-05}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013004144539068464, 291.0: 0.0008933313478388279}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946238913745183e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.8658669368456603, 144.0: 0.0009172755822364778, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946154538547632e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.8657214311427002, 144.0: 0.0009133285356518292, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628, 732.0: 0.0014961101137043686}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.316551436824712, 909.0: 0.4014170354267451, 44.0: 7.544287133983491e-05}</t>
+    <t>{305.0: 0.7921536463673023, 732.0: 0.0014961101137043686}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3165879296007511, 909.0: 0.40143536078664743, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: -0.12142007238618385, 917.0: -0.003055447287573368}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.9977799703996053, 217.0: 0.005354512670264527}</t>
+    <t>{311.0: 0.17223792870653248, 917.0: 0.004334928920664521}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9977799703996053, 217.0: 0.00539249435108721}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -625,28 +625,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.7446673455863116, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 0.3128610519914868}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.7422389940741984, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 897.0: 0.015918924769318995}</t>
-  </si>
-  <si>
-    <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379, 165.0: 0.0005256436981231063, 914.0: 0.0001227150119429378, 110.0: 1.5071155162217302e-05}</t>
-  </si>
-  <si>
-    <t>{402.0: 0.9631065512242976, 476.0: 0.014382932878232587, 595.0: 0.0013564554759008286, 141.0: 0.0010254449556238716, 762.0: 0.0010254449556238716}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.9425316486607611, 782.0: 0.044733262807919, 930.0: 0.09603434816167061}</t>
+    <t>{400.0: 0.9375071729331006, 897.0: 0.01581574764915452}</t>
+  </si>
+  <si>
+    <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379, 165.0: 0.0005255762909825703, 914.0: 0.0001227150119429378, 110.0: 1.5077093968744839e-05}</t>
+  </si>
+  <si>
+    <t>{402.0: 0.9631027328570206, 476.0: 0.014355866202532654, 595.0: 0.0013457072780651506, 141.0: 0.0010254449556238716, 762.0: 0.0010254449556238716}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.9424532032149486, 782.0: 0.044733262807919, 930.0: 0.09529245920638413}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -655,13 +655,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009, 77.0: 0.017752861480962393, 85.0: 1.6479797151044226e-05}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032, 77.0: 0.017752861480962393, 85.0: 1.6422628567032743e-05}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -670,7 +670,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -679,58 +679,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545, 922.0: 0.06848441752911817, 887.0: 0.0027523278545498104, 834.0: 1.3501349733811965e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 5.153871948347349e-06}</t>
+    <t>{418.0: 0.879367457019463, 922.0: 0.06856944170596174, 887.0: 0.0027489110219788312, 834.0: 1.418764392274871e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 5.140230962535237e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9933648160267351, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.674849362771424e-09, 92.0: 2.255934012411074e-12, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9933774668066054, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.616296670307187e-09, 92.0: 2.0938084682701493e-12, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0, 244.0: 0.020075282308657464, 565.0: 0.0002709920694102518, 436.0: 0.00754242614707731, 564.0: 0.0001531357489516091, 84.0: 4.878686138488579e-05, 567.0: 0.014299332697807437, 841.0: 0.0027063599458728013}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
-  </si>
-  <si>
-    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808137663009234e-05, 918.0: 6.570736109710267e-07}</t>
-  </si>
-  <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9854815631925835, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2308415575332725e-06, 172.0: 2.5943467283154615e-09}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
+  </si>
+  <si>
+    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808844077235574e-05, 918.0: 6.570736109710267e-07}</t>
+  </si>
+  <si>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9869660646445744, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2137022864894853e-06, 172.0: 2.549473102495131e-09}</t>
   </si>
   <si>
     <t>{436.0: 0.9924575738529227}</t>
@@ -745,31 +745,31 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9493412936702375, 291.0: 0.06499804014552697}</t>
+    <t>{443.0: 0.9495122956187572, 291.0: 0.06522759696236087}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.8274726965311221, 595.0: 0.07803901192271935, 402.0: 0.035199312420877364, 141.0: 3.747763663068598e-05, 762.0: 3.747763663068598e-05}</t>
+    <t>{476.0: 0.8259187805956957, 595.0: 0.07742095798735162, 402.0: 0.035199172868402566, 141.0: 3.747763663068598e-05, 762.0: 3.747763663068598e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9754941963143856}</t>
+    <t>{481.0: 0.9754793465303014}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -787,25 +787,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9913888345564824, 108.0: 0.008707164631843895, 144.0: 7.151847027037805e-05}</t>
-  </si>
-  <si>
-    <t>{494.0: 0.9250988757626364, 889.0: 0.0006215198201897897, 565.0: 9.779270768592461e-06}</t>
-  </si>
-  <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9914132703652688, 108.0: 0.00870247975337508, 144.0: 7.147838666626667e-05}</t>
+  </si>
+  <si>
+    <t>{494.0: 0.9250988757626364, 889.0: 0.0010856577184348603, 565.0: 9.779270768592461e-06}</t>
+  </si>
+  <si>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 0.9913707268503154}</t>
@@ -814,16 +814,16 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601, 270.0: 0.0012310217480508822, 479.0: 2.6062991219196422e-05, 942.0: 2.398434774772677e-07}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19531969272855593, 180.0: 0.003909603937500637}</t>
+    <t>{499.0: 0.9158799178259773, 270.0: 0.0012310217480508822, 479.0: 2.5290938923166717e-05, 942.0: 2.3300673096199664e-07}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.19481164714513766, 180.0: 0.0063943336394704925}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -835,10 +835,10 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873523329373408e-05}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873327357892935e-05}</t>
   </si>
   <si>
     <t>{531.0: 0.8683673997868194, 262.0: 0.019205314546752728, 442.0: 0.0018243012600563432}</t>
@@ -850,37 +850,37 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44172514845365357, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 595.0: 9.316750718904286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267, 293.0: 0.035617916891527254}</t>
+    <t>{534.0: 0.46654379136126534, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 595.0: 9.242927226949286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826, 293.0: 0.035617916891527254}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.07904502965307865}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.6637060410377729}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6067210535157433}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 0.07455484978503368}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.6681926205097679}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6068619892475952}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -895,7 +895,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 0.6407301259027383, 211.0: 0.02935737516805425}</t>
+    <t>{562.0: 0.6407301259027383, 211.0: 0.02951245272887697}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -925,22 +925,22 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6176277135902498}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7074712356882762, 144.0: 0.024624901995831543, 303.0: 0.08526915820731928, 181.0: 0.004568817818389492}</t>
+    <t>{580.0: 0.6167546233569814}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7076557087763062, 144.0: 0.02464664211550845, 303.0: 0.08542101779450953, 181.0: 0.004568817818389492}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.13435463720265733}</t>
+    <t>{758.0: 0.17026122246430186}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996, 434.0: 0.014278686035726003}</t>
+    <t>{585.0: 0.738502526649488, 434.0: 0.01281650453822409}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -949,10 +949,10 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
-  </si>
-  <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006203832244919863}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
+  </si>
+  <si>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.00620327812086749}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -961,46 +961,46 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.22700102159895758, 686.0: 0.0016654057694474836, 171.0: 0.0012702656154636076}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.4752051152692574, 686.0: 0.0034863690703496463, 171.0: 0.0026591806238009013, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 14.0: 1.4664395685542368e-06, 492.0: 1.4182649564776898e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9041378805394085, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017836643902246173}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9745587882870337}</t>
+    <t>{593.0: 0.34903027661157165, 686.0: 0.0025338360963508516, 171.0: 0.0019604600211132086}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.35349335774018636, 686.0: 0.0025662364834301977, 171.0: 0.001985528597422912, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 14.0: 1.4718110216540514e-06, 492.0: 1.4181377169531444e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9046919016314485, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.01805030673635607}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9742725534142088}</t>
   </si>
   <si>
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 1.0, 423.0: 0.0008835519329335636, 577.0: 0.0004847309743092584}</t>
+    <t>{602.0: 1.0, 423.0: 0.0008835631852155321, 577.0: 0.0004847309743092584}</t>
   </si>
   <si>
     <t>{603.0: 0.516286006648998, 617.0: 0.09814351135918095}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9962446226757116}</t>
-  </si>
-  <si>
-    <t>{607.0: 0.9993920972644377, 276.0: 0.0001289411065702988}</t>
-  </si>
-  <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{606.0: 0.9962612248325914}</t>
+  </si>
+  <si>
+    <t>{607.0: 0.9993920972644377, 276.0: 0.00012884687519226928}</t>
+  </si>
+  <si>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.6181341521126387, 610.0: 0.46377929329690437, 531.0: 0.12147832833239579, 262.0: 0.0026866848142964757, 442.0: 0.0002552065721268819}</t>
@@ -1009,16 +1009,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1027,10 +1027,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 887.0: 0.008531428771375069, 861.0: 0.015827253643999197, 253.0: 2.603166717763026e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 887.0: 0.008395821983903377, 861.0: 0.015843873673027867, 253.0: 2.605900275169057e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1042,7 +1042,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1054,7 +1054,7 @@
     <t>{626.0: 0.6875132950436077}</t>
   </si>
   <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{603.0: 0.4837139933510019, 617.0: 0.09195172673605712}</t>
@@ -1063,7 +1063,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1075,25 +1075,25 @@
     <t>{636.0: 0.8608934040407304}</t>
   </si>
   <si>
-    <t>{702.0: 0.0008999006753813592}</t>
+    <t>{702.0: 0.0008181632517291384}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.017981043987404435, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6361972769699986e-08, 92.0: 7.895769043438758e-12, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.8948750463505933, 171.0: 0.0029712715112190902, 90.0: 0.0006150198562785497, 420.0: 9.754500572628648e-07, 212.0: 0.007039869053910691}</t>
+    <t>{679.0: 0.5064363143631436}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.017980770264996004, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6157038346075156e-08, 92.0: 7.328329638945523e-12, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.8947847675010369, 171.0: 0.0029837801186066606, 90.0: 0.0006150056575440056, 420.0: 9.738556969434549e-07, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
   </si>
   <si>
-    <t>{615.0: 0.1400866634854835, 698.0: 0.025066663577475293, 751.0: 0.18291112586497266}</t>
+    <t>{615.0: 0.14011124871951042, 698.0: 0.025083268154457748, 751.0: 0.18291112586497266}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1102,10 +1102,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.5133392922561841}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 534.0: 0.04730432785716252, 174.0: 0.006537175659195088}</t>
+    <t>{686.0: 0.5136687352674095}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 534.0: 0.044612709947814626, 174.0: 0.006500967737618479}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1117,28 +1117,28 @@
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.02865989283777865, 914.0: 0.005178544615863128}</t>
+    <t>{692.0: 1.0, 110.0: 0.028671186302468753, 914.0: 0.005178544615863128}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.4722181529843751, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466, 543.0: -7.3379506503470745e-06, 505.0: 1.331358853608483e-05}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10262116591668767, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{86.0: 0.4741234952004585, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715, 543.0: 0.0005457914575782239, 505.0: 1.331358853608483e-05}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10386899780065838, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2019759292009454}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.770399094651638, 615.0: 0.0012539225822476843, 751.0: 0.0016372464413088462}</t>
+    <t>{698.0: 0.42302894312137684}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5493097300953231, 615.0: 0.0012541426458809325, 751.0: 0.0016372464413088462}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1147,31 +1147,31 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6185531570853442}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.6185314183072287}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21312395215500024}</t>
+    <t>{707.0: 0.939203537722822}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21378461631512685}</t>
   </si>
   <si>
     <t>{729.0: 0.8666726683471372}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
   </si>
   <si>
     <t>{732.0: 0.9985038898862957}</t>
   </si>
   <si>
-    <t>{888.0: 0.9953557623349778, 73.0: 0.15663214004979042}</t>
+    <t>{888.0: 0.9953557325321328, 73.0: 0.156636125432775}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1180,7 +1180,7 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 0.9928304239401496, 228.0: 0.9928304239401496}</t>
@@ -1189,16 +1189,16 @@
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 90.0: 0.03336709490427921, 789.0: 0.001337755535269926, 246.0: 0.0046769653436076015}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.16227014493243197}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 90.0: 0.033366825615940315, 789.0: 0.0013407587636822436, 246.0: 0.0046735214091655165}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.12636355967078747}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1210,7 +1210,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18580263341122483, 476.0: 0.15804473364474264, 595.0: 0.014905210655202806, 534.0: 0.05148266943668257, 297.0: 0.00040398925276964663}</t>
+    <t>{298.0: 0.18735357437249206, 476.0: 0.15962496150509836, 595.0: 0.014963114689685803, 534.0: 0.054119724504907374, 297.0: 0.00040628664713390897}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1692483342547498}</t>
+    <t>{580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1240,10 +1240,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006973890208834278}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{141.0: 0.08531777884783316, 762.0: 0.08531777884783316}</t>
@@ -1261,16 +1261,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 410.0: 0.0011892711866379729, 729.0: 0.0005594301533215271}</t>
+    <t>{770.0: 1.0, 410.0: 0.001187460658027995, 729.0: 0.0005585784852501463}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.008611165443517668, 108.0: 7.563009847926788e-05, 144.0: 6.212066933768134e-07}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.09693769541970168, 729.0: 0.04559924634564226}</t>
+    <t>{772.0: 1.0, 493.0: 0.00858672963473121, 108.0: 7.537304878562167e-05, 144.0: 6.19081466202159e-07}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.09693908409627565, 729.0: 0.04559989957558462}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1282,67 +1282,67 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.01770244382228652, 184.0: 0.008192684577809846, 593.0: 0.0012618944109774287, 420.0: 0.0013220370978487693, 212.0: 1.2372956890280223e-06, 681.0: 7.94241375218587e-09}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.017504494354900122, 184.0: 0.008208994008638804, 593.0: 0.0012618726865326077, 420.0: 0.001319876245559199, 212.0: 1.2323045809641737e-06, 681.0: 7.92139220675492e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.00039723359866790484, 172.0: 8.372821674516765e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.00039170218459303987, 172.0: 8.227999526119286e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7312174064104665, 889.0: 0.5730622017651047}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.0693266940235475, 180.0: 0.0013876732660287297}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692, 681.0: 0.07746826097506165, 171.0: 0.0002572194160487373, 90.0: 5.3241532351730664e-05, 420.0: 8.444354316543665e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{785.0: 0.7312174064104665, 889.0: 0.25659597967009595}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.0698347001839775, 180.0: 0.0022921954571641172}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418, 681.0: 0.0774604456431821, 171.0: 0.00025830227120878077, 90.0: 5.324030318428694e-05, 420.0: 8.430552130214296e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 0.9992826398852224, 17.0: 0.015055735764571863, 918.0: 0.0009153035400826402}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5187153827751221, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -1.0490616541994016e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9747494196977742, 486.0: 1.0, 604.0: 0.406643068799627, 980.0: 0.30157180612251394, 840.0: 0.004316784414945863, 303.0: 0.0002426835451106993, 144.0: 2.570922628730756e-07}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005372966926216832}</t>
-  </si>
-  <si>
-    <t>{840.0: 0.8479073387672611, 303.0: 0.04766815738700683, 144.0: 5.0498332896964115e-05}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 0.9992826398852224, 17.0: 0.015056719799589153, 918.0: 0.0009153035400826402}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5186852681208028, 210.0: 0.05184901838221328, 82.0: 5.35156485808748e-05, 788.0: -9.163481340406811e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9741566380206612, 486.0: 1.0, 604.0: 0.40822465293820404, 980.0: 0.30157180612251394, 840.0: 0.004316784414945863, 303.0: 0.00024264276304786082, 144.0: 2.5598599213202017e-07}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.005360300071658137}</t>
+  </si>
+  <si>
+    <t>{840.0: 0.8479073387672611, 303.0: 0.04766014693129561, 144.0: 5.028103803351049e-05}</t>
   </si>
   <si>
     <t>{841.0: 0.9972936400541272}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1354,49 +1354,49 @@
     <t>{847.0: 0.9940119760479041}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
-  </si>
-  <si>
-    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1913625224321567e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.025012879793628044, 277.0: 0.06388127608361341}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.127015359537843}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 91.0: 0.000333083017097464, 92.0: 1.6073529838428901e-07, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613790208428865}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
+  </si>
+  <si>
+    <t>{849.0: 1.0, 315.0: 0.002220029600394672, 217.0: 1.1998133290428898e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.006014103002808445, 277.0: 0.064011902744831}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.1271454449394628}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 91.0: 0.0003289111377593871, 92.0: 1.4918385336424814e-07, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613735196308318}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.0007467603509694502}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.0035956064320394844}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700430574810726, 253.0: 0.0011020445024359745, 490.0: 0.032209337000882715, 619.0: 0.0001431947985895543, 887.0: 1.2226180526476166e-06}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.6741299452051571, 253.0: 0.0011087663572453242, 490.0: 0.032521737688368406, 619.0: 0.0001431947985895543, 887.0: 1.2031845778021464e-06}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1405,10 +1405,10 @@
     <t>{886.0: 0.3792551629775861, 531.0: 0.010154271880784736, 262.0: 0.00022457773692516884, 442.0: 2.133250395122844e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.7583372431913534, 834.0: 0.0036270849163956343, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.0066792419349486504, 494.0: 0.019047203721788936}</t>
+    <t>{887.0: 0.7574892058588422, 834.0: 0.0036884952488533893, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.0066792419349486504, 494.0: 0.019047203721788936}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1420,58 +1420,58 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 1.0, 209.0: 0.03218898503285146, 896.0: 1.0, 897.0: 0.025011973259636902, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.001011531576824e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.3687705022083621}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.25724892930914856, 687.0: 0.006852159468438538, 534.0: 0.0003263731589559614, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 253.0: 0.0005166439079084569, 490.0: 0.015099947446190023}</t>
+    <t>{895.0: 1.0, 209.0: 0.03218652840156133, 896.0: 1.0, 897.0: 0.024959772235402113, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.00088973352395e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.3663262362192328}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.2572525297051986, 687.0: 0.006852159468438538, 534.0: 0.00030780251479780105, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 253.0: 0.000509894699920738, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.27665170598155925, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7269507306257114}</t>
+    <t>{915.0: 1.0, 171.0: 0.2741594620673877, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7266651015559211}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.22396696302162192, 297.0: 0.0009905894006934125, 857.0: 0.0007418295946381623}</t>
+    <t>{298.0: 0.22398909751516538, 297.0: 0.0009962226557635632, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.0697701476794267}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.8438891822425123, 887.0: 0.033915155976201164, 834.0: 1.6636840024509805e-05}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.06954351822272714}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.8449368801810523, 887.0: 0.03387305255839875, 834.0: 1.7482515964782455e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1480,7 +1480,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.2374004574051698, 762.0: 0.2374004574051698, 263.0: 0.0020337729569826204, 595.0: 3.1594642834294153e-06}</t>
+    <t>{141.0: 0.2374004574051698, 762.0: 0.2374004574051698, 263.0: 0.0020337729569826204, 595.0: 3.1937479066863588e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1489,49 +1489,49 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06633246172511484, 887.0: 5.666016511537187e-05, 834.0: 2.7794243477701342e-08}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06512923086076715, 887.0: 5.658982527656115e-05, 834.0: 2.920706724426663e-08}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
   </si>
   <si>
-    <t>{932.0: 1.0, 108.0: 0.0004714245245266227, 144.0: 3.872163013753022e-06}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.22847970492944453, 702.0: 0.19452922961350527, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{932.0: 1.0, 108.0: 0.0004714268749157421, 144.0: 3.872095472216239e-06}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.22912593073271295, 702.0: 0.19453117352956792, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.13759038269961094, 206.0: 0.14803887751440029, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.1338771281503633, 206.0: 0.14803887751440029, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 975.0: 0.00211164005116051, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 0.9959752321981424, 975.0: 0.002154720585817263, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056, 565.0: 0.008102194699882857}</t>
@@ -1540,16 +1540,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9913115968644323, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9912686205827286, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1561,19 +1561,19 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.18405465131412485, 729.0: 0.08657884169823496}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.1840572879807126, 729.0: 0.08658008197951819}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493103, 886.0: 0.006416426050689767}</t>
   </si>
   <si>
-    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925554e-05, 152.0: 2.353316507224184e-06, 166.0: 0.00038000778598933077, 893.0: 2.926513561719916e-07}</t>
+    <t>{4.0: 0.91165787329101, 496.0: 0.004334876500652204, 559.0: 0.04545999385731579, 944.0: 0.035880301665161124, 971.0: 0.0022708478827425127, 975.0: 1.3453049265925554e-05, 152.0: 2.353316507224184e-06, 166.0: 0.0003800041378228341, 893.0: 2.962995226688764e-07}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364501, 403.0: 0.0037483537635497914}</t>
@@ -1591,7 +1591,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123919, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033584, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.001613944480309877, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1615,10 +1615,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.836059418738146, 90.0: 0.060501317216433745, 246.0: 0.06083604370162687, 681.0: 0.024047541953283215, 741.0: 0.00768240737061804, 789.0: 0.010873271019892425}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121358, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.836059418738146, 90.0: 0.060501317216433745, 246.0: 0.060835303805752326, 681.0: 0.024047541953283215, 741.0: 0.007682407370618038, 789.0: 0.01087401091576699}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121358, 443.0: 0.07303779428966838, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1627,7 +1627,7 @@
     <t>{50.0: 0.7027624309392265, 96.0: 0.14157087340618177, 100.0: 0.15566669565459174}</t>
   </si>
   <si>
-    <t>{834.0: 0.901886977527475, 887.0: 0.0979437126920631, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
+    <t>{834.0: 0.9018869579531449, 887.0: 0.09794373226639341, 210.0: 0.00016819795756512496, 82.0: 2.4321125861513637e-07, 788.0: 8.686116379112015e-07}</t>
   </si>
   <si>
     <t>{311.0: 1.0}</t>
@@ -1639,10 +1639,10 @@
     <t>{73.0: 0.8707625109862649, 888.0: 0.007535418671092929, 11.0: 0.12170207034264226}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487786, 917.0: 0.22668409045122156}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.999477670410029, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332864, 917.0: 0.22441031406671366}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -1651,7 +1651,7 @@
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699434, 172.0: 0.001461732130057138}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203809}</t>
   </si>
   <si>
     <t>{82.0: 0.7932843425038838, 914.0: 0.0009225701795882796, 110.0: 9.765832606118458e-05, 860.0: 0.2056954289904669}</t>
@@ -1663,7 +1663,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044908, 165.0: 0.000476246703126895, 433.0: 0.00010498729238260625}</t>
@@ -1675,7 +1675,7 @@
     <t>{89.0: 0.9985642498205315, 88.0: 0.001435750179468772}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.891516281160075e-07, 681.0: 8.615903205520463e-09}</t>
+    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.8915162811600777e-07, 681.0: 8.615903205520463e-09}</t>
   </si>
   <si>
     <t>{91.0: 0.9592936041245316, 92.0: 0.04001922806534925, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
@@ -1696,22 +1696,22 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6683027218222525, 86.0: 0.3280550260439784, 505.0: 0.0036422521337693497}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871664}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.6641652280938671, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
+    <t>{543.0: 0.668300973970845, 86.0: 0.3280567738953858, 505.0: 0.0036422521337693497}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511275, 144.0: 0.012081148848871664}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.6641652280938668, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{140.0: 0.35852366256693413, 141.0: 0.6043341262132442, 762.0: 0.03714221121982108}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273647}</t>
+    <t>{140.0: 0.35852366256693413, 141.0: 0.6043885928101727, 762.0: 0.0370877446228932}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289224}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1729,13 +1729,13 @@
     <t>{152.0: 0.999050031665611, 975.0: 0.0009499683343888538}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.02189152298465993, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.8953373976905101, 914.0: 0.09579461286779518, 110.0: 0.008867989441694459}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589452, 893.0: 0.0007695267410542518}</t>
+    <t>{166.0: 0.9992208804051422, 893.0: 0.0007791195948578105}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 276.0: 0.5808984820566816}</t>
@@ -1747,13 +1747,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.978468430091143, 81.0: 0.020556721010436343, 97.0: 0.0009748488984207448}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.946144045410139, 404.0: 0.006089422657506927, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414902, 420.0: 0.008005368064976278, 212.0: 1.2885762735512773e-06, 681.0: 2.8529363990065158e-08, 831.0: 0.0014662756598240463}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.16477204994960434, 534.0: 0.5646926444040532, 298.0: 0.00035041367597205285, 857.0: 0.00024075169205073355, 204.0: 0.2699441402783196}</t>
+    <t>{172.0: 0.9784684483586001, 81.0: 0.020556702742979403, 97.0: 0.0009748488984207448}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921805, 404.0: 0.006082939375465399, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414902, 420.0: 0.008005368064976278, 212.0: 1.2885762735512775e-06, 681.0: 2.8529363990065158e-08, 831.0: 0.0014662756598240463}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.16545044309537593, 534.0: 0.5640142512582816, 298.0: 0.000350452488792939, 857.0: 0.00023966689064909813, 204.0: 0.2699451862669004}</t>
   </si>
   <si>
     <t>{175.0: 0.981855154074769, 399.0: 0.01814484592523072}</t>
@@ -1765,25 +1765,25 @@
     <t>{562.0: 0.9999621514340226, 211.0: 3.784856597773307e-05}</t>
   </si>
   <si>
-    <t>{178.0: 0.9787688438400038, 14.0: 0.007491382546310046, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.4903320013292641, 180.0: 0.49786198776269125, 410.0: 0.011704328030112692, 277.0: 0.00010168287793200859}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9744761105291383, 410.0: 0.0253040571703813, 277.0: 0.00021983230048070316}</t>
+    <t>{178.0: 0.9787135366093607, 14.0: 0.00749095923121892, 681.0: 0.007227483624919332, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.49118059710090184, 180.0: 0.49695873926331247, 410.0: 0.011680791584168787, 277.0: 0.00017987205161680263}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9743062866453895, 410.0: 0.0253040571703813, 277.0: 0.000389656184229336}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9979967004477963, 277.0: 0.0019306801921326877, 180.0: 7.261936007094297e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9975965652732817, 277.0: 0.0023163105162455843, 180.0: 8.712421047296352e-05}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.6112571058524545, 171.0: 0.16537841045414448, 593.0: 0.20810706699212925, 778.0: 0.015229946623203337, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103237e-09, 681.0: 9.788118795062518e-11}</t>
+    <t>{182.0: 0.9979888796876848, 277.0: 0.001938217450661064, 180.0: 7.290286165408993e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9975965652732817, 277.0: 0.0023163105162455826, 180.0: 8.712421047296354e-05}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.6109783003190128, 171.0: 0.1654935010893701, 593.0: 0.20824956668722608, 778.0: 0.015251161826322664, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103239e-09, 681.0: 9.788118795062518e-11}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990524, 543.0: 0.012701421800947868}</t>
@@ -1798,7 +1798,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744951, 857.0: 0.005385190725504863}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502374}</t>
   </si>
   <si>
     <t>{205.0: 0.9904418591949314, 206.0: 0.006534944050867963, 785.0: 0.0011285323159252114, 578.0: 0.0018946644382753695}</t>
@@ -1828,16 +1828,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680912, 409.0: 0.21846661763190867}</t>
+    <t>{218.0: 0.7813754377265824, 409.0: 0.21862456227341753}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310289, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345017, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{221.0: 0.9001536098310295, 999.0: 0.09984639016897079}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1849,10 +1849,10 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690035}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.00018045618356780222, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{230.0: 0.9967205946655007, 581.0: 0.0029169370366613034, 144.0: 0.00015255519407241, 303.0: 0.00020991310376563044}</t>
+    <t>{227.0: 0.9996683166600522, 297.0: 0.00017861479393955929, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{230.0: 0.9967205946655007, 581.0: 0.002916937036661304, 144.0: 0.00015255519407240996, 303.0: 0.00020991310376563044}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427757, 145.0: 0.0010008242081714354, 301.0: 0.00888967384905216}</t>
@@ -1861,25 +1861,25 @@
     <t>{102.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364936}</t>
+    <t>{240.0: 0.23750306546350647, 241.0: 0.7624969345364936}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9947452593100297, 738.0: 0.00372591274978755, 228.0: 0.0015288279401827487}</t>
   </si>
   <si>
-    <t>{244.0: 0.974925059785843, 565.0: 0.021736276431955755, 564.0: 0.0030846084181672174, 84.0: 0.00025405536403417004}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9994584743592917, 46.0: 0.0004820751577681768, 90.0: 3.488529808840017e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.429706384768369e-06, 789.0: 6.269570947818602e-06}</t>
+    <t>{244.0: 0.974925059785843, 565.0: 0.021728732314269555, 564.0: 0.0030921525358534154, 84.0: 0.00025405536403417004}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994584739326644, 46.0: 0.0004820751577681768, 90.0: 3.488529808840017e-05, 681.0: 1.3865907519542821e-05, 741.0: 4.429706384768369e-06, 789.0: 6.2699975746975875e-06}</t>
   </si>
   <si>
     <t>{249.0: 0.8773903262092239, 600.0: 0.12260967379077614}</t>
@@ -1894,7 +1894,7 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8756893313117046, 973.0: 0.0986719535660132, 494.0: 0.01089834661306858, 84.0: 0.01474036850921273}</t>
+    <t>{255.0: 0.875689331311706, 973.0: 0.09869691161169196, 494.0: 0.010873388567389798, 84.0: 0.01474036850921273}</t>
   </si>
   <si>
     <t>{260.0: 0.9678010679843784, 707.0: 0.03219893201562126}</t>
@@ -1903,13 +1903,13 @@
     <t>{262.0: 0.9992897727272732, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549508, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.001397572636998897}</t>
   </si>
   <si>
     <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 0.81152036388616, 237.0: 0.1884796361138399}</t>
@@ -1918,13 +1918,13 @@
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{686.0: 0.9462026456299708, 921.0: 0.007832083685657111, 77.0: 0.04594126166338233, 85.0: 2.400902098948645e-05}</t>
+    <t>{686.0: 0.9462026456299708, 921.0: 0.007832083685657111, 77.0: 0.045940876219367474, 85.0: 2.4394465004310364e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9994319468243577, 167.0: 0.0005680531756420232}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658952}</t>
+    <t>{277.0: 0.9637501241434102, 180.0: 0.03624987585658955}</t>
   </si>
   <si>
     <t>{281.0: 0.961915753029429, 599.0: 0.009040200038468935, 621.0: 0.029044046932102323}</t>
@@ -1933,7 +1933,7 @@
     <t>{285.0: 0.8919655461591188, 311.0: 0.10606128854716268, 917.0: 0.0019731652937183177}</t>
   </si>
   <si>
-    <t>{909.0: 0.953615451526891, 142.0: 0.004010524852004906, 788.0: 0.04237388612014245, 44.0: 1.3750096152363283e-07}</t>
+    <t>{909.0: 0.953615451526891, 142.0: 0.0040105241303797804, 788.0: 0.04237388612014245, 44.0: 1.3822258664971235e-07}</t>
   </si>
   <si>
     <t>{287.0: 0.9981364144614238, 847.0: 0.0018635855385762206}</t>
@@ -1954,7 +1954,7 @@
     <t>{293.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.8482406878811238, 298.0: 0.151737260138993, 476.0: 1.027269782791591e-05, 595.0: 1.8727891768349888e-06, 534.0: 9.90649287865769e-06}</t>
+    <t>{297.0: 0.8482404619792367, 298.0: 0.15173748604087978, 476.0: 1.0274028879214302e-05, 595.0: 1.8714581255365999e-06, 534.0: 9.90649287865769e-06}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683545, 443.0: 0.014031863814927976, 291.0: 0.0016643387167175898}</t>
@@ -1963,7 +1963,7 @@
     <t>{301.0: 0.9995592383638927, 145.0: 0.0004333709205954403, 743.0: 1.3700028984314633e-06, 544.0: 4.0916799471302986e-10, 975.0: 1.2514541508064231e-06, 942.0: 4.685949257780303e-06, 152.0: 8.290003674011708e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -1972,13 +1972,13 @@
     <t>{305.0: 0.999240506329114, 732.0: 0.0007594936708860759}</t>
   </si>
   <si>
-    <t>{142.0: 0.31786658877294144, 909.0: 0.6821038549456095, 44.0: 2.9556281449005187e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.8858654923525077, 204.0: 0.0409854440794062, 426.0: 0.0731432659158121, 857.0: 5.797652272921263e-06}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015056, 887.0: 0.1500728508984944}</t>
+    <t>{142.0: 0.3178664336572601, 909.0: 0.6821038549456095, 44.0: 2.9711397130311994e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.8880984604071778, 204.0: 0.04103334546343127, 426.0: 0.07086273685860801, 857.0: 5.45727078249987e-06}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.850363196125908, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823572, 917.0: 0.018264222417641886}</t>
@@ -1987,10 +1987,10 @@
     <t>{226.0: 0.9417289819392753, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.007315957933241885}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452711, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667586, 217.0: 0.007315957933241885}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{98.0: 0.908760653905268, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -1999,55 +1999,55 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.968119139547712, 897.0: 0.03188086045228902}</t>
+    <t>{400.0: 0.9681191395477109, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{401.0: 0.9919143091547966, 16.0: 0.006852835243415693, 165.0: 0.001103821726232714, 914.0: 0.00011810092509513969, 110.0: 1.0932950459786665e-05}</t>
   </si>
   <si>
-    <t>{402.0: 0.987618345723079, 476.0: 0.008786909525333939, 595.0: 0.0016019189245647474, 141.0: 0.001877438939818454, 762.0: 0.00011538688720426235}</t>
+    <t>{402.0: 0.987618345723079, 476.0: 0.00878804806046156, 595.0: 0.0016007803894371245, 141.0: 0.0018776081470592127, 762.0: 0.00011521767996350528}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.1809349165971995, 404.0: 0.7105462066295466, 782.0: 0.012351345839021853, 930.0: 0.09616753093423205}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.9430399999999999, 403.0: 0.05696}</t>
+    <t>{405.0: 0.17699640347484033, 404.0: 0.714459882052916, 782.0: 0.012362618293449795, 930.0: 0.09618109617879396}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
   </si>
   <si>
-    <t>{410.0: 0.9895157952821079, 77.0: 0.010478728507540653, 85.0: 5.476210351471466e-06}</t>
+    <t>{410.0: 0.9895157952821079, 77.0: 0.010478640591731635, 85.0: 5.564126160484077e-06}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888406, 759.0: 0.0030998140111593298}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.12228716197857423, 180.0: 0.004599630474255936}</t>
-  </si>
-  <si>
-    <t>{418.0: 0.9705407929365819, 922.0: 0.027443434380035863, 887.0: 0.002013998002050393, 834.0: 1.7746813316878175e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.9852104664391351, 17.0: 0.014789533560864623}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597467, 212.0: 0.0001609375473236561, 681.0: 3.5631929296750426e-06}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12246045507537903, 180.0: 0.004606148609080106}</t>
+  </si>
+  <si>
+    <t>{418.0: 0.9705407929365819, 922.0: 0.027443434380035863, 887.0: 0.0020140238148212953, 834.0: 1.748868560785759e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750566, 17.0: 0.014739229024943313}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597467, 212.0: 0.00016093754732365614, 681.0: 3.5631929296750426e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9987563735853747, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540838, 91.0: 2.5031470007799736e-07, 92.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.04756292440600671, 434.0: 0.0003999430514455907}</t>
-  </si>
-  <si>
-    <t>{425.0: 0.9661477637756363, 244.0: 0.019351018158508412, 565.0: 0.0010007592542332624, 436.0: 0.0029651593773165306, 564.0: 0.002428214493749036, 84.0: 0.00019999326771240659, 567.0: 0.007412898443291327, 841.0: 0.0004941932295527551}</t>
+    <t>{423.0: 0.9987563735853747, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540828, 91.0: 2.5031470007799736e-07, 92.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406798, 585.0: 0.047489449239571074, 434.0: 0.0003993252197492279}</t>
+  </si>
+  <si>
+    <t>{425.0: 0.9661477637756363, 244.0: 0.019351018158508412, 565.0: 0.0009948204985065095, 436.0: 0.0029651593773165306, 564.0: 0.002434153249475787, 84.0: 0.00019999326771240659, 567.0: 0.007412898443291327, 841.0: 0.0004941932295527551}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2059,7 +2059,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243409, 783.0: 0.00018839487565938212}</t>
+    <t>{431.0: 0.9996376811594208, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2071,10 +2071,10 @@
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 0.693630435236865, 585.0: 0.3063695647631346}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
+    <t>{434.0: 0.693630435236865, 585.0: 0.3063695647631347}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.7964633826140964e-06, 172.0: 7.027153842396636e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -2083,43 +2083,43 @@
     <t>{439.0: 0.973535457348407, 83.0: 0.02646454265159301}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363632, 782.0: 0.01136363636363637}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.01136363636363636}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413791, 291.0: 0.1060344827586207}</t>
+    <t>{443.0: 0.8939655172413791, 291.0: 0.10603448275862067}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.7998608662067431, 595.0: 0.14582058173025728, 402.0: 0.05420916828020738, 141.0: 0.00010305033707116815, 762.0: 6.333445721085291e-06}</t>
+    <t>{476.0: 0.7999645055683142, 595.0: 0.1457169423686864, 402.0: 0.05420916828020738, 141.0: 0.00010305962465055371, 762.0: 6.3241581416998415e-06}</t>
   </si>
   <si>
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343365, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555476, 563.0: 0.03900037864445287}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445287}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066563, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294476, 503.0: 0.02208588957055216}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169229, 97.0: 0.011519836235458275, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589339, 14.0: 0.00011685133629600279}</t>
+    <t>{492.0: 0.9720846452514067, 97.0: 0.011519836235458275, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015266934590589339, 14.0: 0.00011685133629600279}</t>
   </si>
   <si>
     <t>{493.0: 0.9826319305277219, 108.0: 0.01715824323976576, 144.0: 0.00020982623251213314}</t>
@@ -2134,10 +2134,10 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.999597044996642, 270.0: 0.00039786330040632973, 479.0: 4.978971520965257e-06, 942.0: 1.1273143066336438e-07}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434109, 180.0: 0.03624987585658953}</t>
+    <t>{499.0: 0.999597044996642, 270.0: 0.00039786330040632973, 479.0: 4.97674446542064e-06, 942.0: 1.1495848620798401e-07}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434097, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2146,7 +2146,7 @@
     <t>{505.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728275, 702.0: 0.611204481792717}</t>
+    <t>{249.0: 0.38879551820728303, 702.0: 0.611204481792717}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
@@ -2161,13 +2161,13 @@
     <t>{532.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9992392131290078, 402.0: 0.0007513670709772362, 476.0: 6.684965403471098e-06, 595.0: 1.2187188862029379e-06, 141.0: 1.4283308965035524e-06, 762.0: 8.778482886967026e-08}</t>
-  </si>
-  <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.006547732017460619}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124718, 837.0: 0.18177668218752846}</t>
+    <t>{534.0: 0.9992392131290078, 402.0: 0.0007513670709772362, 476.0: 6.685831586048357e-06, 595.0: 1.2178527036256798e-06, 141.0: 1.428459627150798e-06, 762.0: 8.765609822242554e-08}</t>
+  </si>
+  <si>
+    <t>{535.0: 0.9934522679825393, 71.0: 0.006547732017460619}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{537.0: 0.9595797038915647, 608.0: 0.026831661148583517, 293.0: 0.013588634959851761}</t>
@@ -2206,7 +2206,7 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.7559218504771037, 565.0: 0.18181870687427257, 84.0: 0.0622594426486238}</t>
+    <t>{564.0: 0.7577706308175776, 565.0: 0.17996992653379804, 84.0: 0.0622594426486238}</t>
   </si>
   <si>
     <t>{567.0: 1.0}</t>
@@ -2230,7 +2230,7 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8878338303942803, 144.0: 0.046433522766359744, 303.0: 0.06389166191242392, 181.0: 0.0018409849269359108}</t>
+    <t>{581.0: 0.8878338303942804, 144.0: 0.04643352276635974, 303.0: 0.06389166191242392, 181.0: 0.0018409849269359108}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -2248,13 +2248,13 @@
     <t>{589.0: 0.9635931981692134, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.005427172557571232, 171.0: 0.003365260160497021}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357594, 686.0: 0.005408680253004251, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.1616104459946e-07, 492.0: 3.031470093290503e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991026470588215, 402.0: 0.0008894395353984783, 476.0: 7.913405780326473e-06}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.0054175084264940195, 171.0: 0.003365260160497021}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9878398022377088, 686.0: 0.005399049051054196, 171.0: 0.003353793523832187, 85.0: 0.003295843986250127, 178.0: 8.05030619533526e-05, 14.0: 6.1616104459946e-07, 492.0: 3.0314700497386945e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991026460334677, 402.0: 0.0008894395353984776, 476.0: 7.914431134056821e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294205, 599.0: 0.017932683170579104}</t>
@@ -2266,10 +2266,10 @@
     <t>{602.0: 0.9979748886188743, 423.0: 0.0014175779667881733, 577.0: 0.0006075334143377885}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542194, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7589999858839295, 837.0: 0.16861961302107828, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
+    <t>{603.0: 0.8619640387275244, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.759680996969417, 837.0: 0.16867679992930837, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.025141242937853105}</t>
@@ -2293,7 +2293,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665927, 698.0: 0.010908099263703296, 832.0: 0.1401690755385874}</t>
+    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665944, 698.0: 0.010908099263703296, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2302,10 +2302,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.987024483063915, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914441, 887.0: 0.013007925875422117, 861.0: 0.02146674605646208, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568502}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791261, 861.0: 0.02152800086044684, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111375}</t>
@@ -2323,7 +2323,7 @@
     <t>{629.0: 0.2038583011463069, 209.0: 0.12419463399985504, 788.0: 0.671947064853838}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542198, 617.0: 0.13761720904578048}</t>
+    <t>{603.0: 0.8619640387275244, 617.0: 0.13803596127247575}</t>
   </si>
   <si>
     <t>{629.0: 1.0}</t>
@@ -2335,7 +2335,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905325, 91.0: 5.201367219170938e-07, 92.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.370382324335479e-05, 307.0: 4.568668548426226e-08, 207.0: 1.1116985253964603e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043868489739053217, 91.0: 5.201367219170938e-07, 92.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.568668548426226e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9923031168232245, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157585, 420.0: 1.8494445633932727e-06, 212.0: 0.0026068585492860052}</t>
@@ -2356,7 +2356,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.7058427004955543, 534.0: 0.29267935943527196, 174.0: 0.0014779400691736146}</t>
+    <t>{687.0: 0.707188847156117, 534.0: 0.291314676333301, 174.0: 0.0014964765105820598}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972785, 208.0: 0.042517006802721094}</t>
@@ -2371,13 +2371,13 @@
     <t>{692.0: 0.9486669212930688, 110.0: 0.039490951555331485, 914.0: 0.011842127151599699}</t>
   </si>
   <si>
-    <t>{86.0: 0.950554327074495, 165.0: 0.03933269293741559, 433.0: 0.008670785344030915, 543.0: 0.001434377282929933, 505.0: 7.817361128107671e-06}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.721379901164324, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.230205000670429e-07, 623.0: 8.137321532264156e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{86.0: 0.9505543308259071, 165.0: 0.03933269293741559, 433.0: 0.008670785344030915, 543.0: 0.0014343735315186775, 505.0: 7.817361128107671e-06}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652261, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063286, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.228119652057989e-07, 623.0: 8.132068258195553e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2389,7 +2389,7 @@
     <t>{700.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9618681096678863, 481.0: 0.012221958191459804, 477.0: 0.005093562077699728, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
+    <t>{704.0: 0.9618681096678863, 481.0: 0.012221958191459796, 477.0: 0.005093562077699728, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2404,13 +2404,13 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.890768909333088, 73.0: 0.10923109066691225}</t>
+    <t>{888.0: 0.8907939018318655, 73.0: 0.10920609816813451}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 0.709057395905222, 228.0: 0.29094260409477785}</t>
@@ -2419,7 +2419,7 @@
     <t>{739.0: 0.999451679232351, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
   </si>
   <si>
     <t>{741.0: 0.8859583153113908, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
@@ -2431,13 +2431,13 @@
     <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
-    <t>{298.0: 0.5919182181656845, 476.0: 0.189652304847783, 595.0: 0.03457502496720431, 534.0: 0.18289150901431145, 297.0: 0.0009629430050168128}</t>
+    <t>{298.0: 0.5919183197205257, 476.0: 0.1896768784262957, 595.0: 0.03455045138869174, 534.0: 0.18289150901431145, 297.0: 0.0009628414501755321}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787183, 917.0: 0.0799912289212821}</t>
+    <t>{754.0: 0.8492529563266307, 917.0: 0.15074704367336977}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2455,40 +2455,40 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009006, 762.0: 0.057901139999098857}</t>
+    <t>{141.0: 0.9421837681943136, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 410.0: 0.01365334274537486, 729.0: 0.00598951439748228}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.987227660316921, 493.0: 0.012550508800140112, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
+    <t>{770.0: 0.9801712483100498, 410.0: 0.013782554190914696, 729.0: 0.006046197499035739}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9872276603169207, 493.0: 0.01255050880014012, 108.0: 0.00021915091102318846, 144.0: 2.6799719160657585e-06}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.01962816851591652, 184.0: 0.001549191591910711, 593.0: 0.0020408724394157638, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031756e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523234, 81.0: 0.00034909044494929776, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972542, 171.0: 0.01913116741521325, 184.0: 0.0015373358112421684, 593.0: 0.0019984907361196625, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031756e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523234, 81.0: 0.0003490900273780446, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047506, 889.0: 0.20471452899524964}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.9637501241434098, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.8954491414330118, 246.0: 0.05449532945386731, 681.0: 0.04967025755318534, 171.0: 0.00021649230569130122, 90.0: 3.819899531031601e-05, 420.0: 9.257492618603483e-08, 212.0: 0.0001304876840075733}</t>
+    <t>{789.0: 0.8955102888552557, 246.0: 0.05443418203162405, 681.0: 0.04967025755318534, 171.0: 0.00021649230569130122, 90.0: 3.819899531031601e-05, 420.0: 9.257492618603483e-08, 212.0: 0.0001304876840075733}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2503,19 +2503,19 @@
     <t>{834.0: 0.9681697612732096, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.0001632989879273059}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051403, 756.0: 0.005039354435002382}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.786339298291105, 486.0: 0.10184638108680173, 604.0: 0.09288138266787169, 980.0: 0.01877165457752797, 840.0: 0.00015083648348333185, 303.0: 1.0422831267752875e-05, 144.0: 2.4061942134096673e-08}</t>
+    <t>{835.0: 0.9827025729172753, 836.0: 0.012258072647722114, 756.0: 0.005039354435002382}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7863298830011203, 486.0: 0.10184638108680173, 604.0: 0.09289079795785637, 980.0: 0.01877165457752797, 840.0: 0.00015083648348333185, 303.0: 1.042272923176079e-05, 144.0: 2.4163978126184215e-08}</t>
   </si>
   <si>
     <t>{838.0: 0.8986196061801565, 19.0: 0.08849300800794795, 423.0: 0.012887385811895666}</t>
   </si>
   <si>
-    <t>{840.0: 0.9352264726590002, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{840.0: 0.9352264726590002, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -2524,40 +2524,40 @@
     <t>{842.0: 0.9956627812415286, 606.0: 0.00433721875847113}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305082, 686.0: 0.06779661016949153}</t>
+    <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
   </si>
   <si>
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.8022190532860047, 707.0: 0.004568879278325606, 634.0: 0.1932120674356699}</t>
-  </si>
-  <si>
-    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313654, 217.0: 1.5409225696039546e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.4913251915743714}</t>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.1932120674356699}</t>
+  </si>
+  <si>
+    <t>{849.0: 0.9978937514626726, 315.0: 0.0020908393116313663, 217.0: 1.5409225696039546e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525658}</t>
   </si>
   <si>
     <t>{851.0: 0.7041613012602975, 7.0: 0.29583869873970237}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290925, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8251169051732464, 91.0: 0.000978318617322093, 92.0: 1.813318283763762e-07, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.10588495780442554, 307.0: 8.593151202294275e-05, 207.0: 0.004452673901477769, 481.0: 9.667988327615617e-06}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323127, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527884}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9907006998347075, 253.0: 0.0007238184843798091, 490.0: 0.008453820911291304, 619.0: 0.00012004347186266865, 887.0: 1.617297758973283e-06}</t>
+    <t>{852.0: 0.9898358092259584, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8251169051732459, 91.0: 0.000978318617322093, 92.0: 1.813318283763762e-07, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.1060226296937994, 307.0: 8.593151202294275e-05, 207.0: 0.004315002012103898, 481.0: 9.667988327615617e-06}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310047, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085409, 298.0: 0.005269269691458645}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.987298578199052, 543.0: 0.012701421800947866}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9906917700310797, 253.0: 0.0007238119601521299, 490.0: 0.008462764860626146, 619.0: 0.00012003110616717065, 887.0: 1.6220419752320364e-06}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932898}</t>
@@ -2569,7 +2569,7 @@
     <t>{886.0: 0.9906196327123794, 531.0: 0.009182424896677303, 262.0: 0.0001874321754949392, 442.0: 1.051021544831435e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9928399402803226, 834.0: 0.006610309975199911, 619.0: 0.0005377841363674718, 861.0: 1.1956872267456315e-05, 253.0: 8.735842383070054e-09}</t>
+    <t>{887.0: 0.992852504847461, 834.0: 0.006597766661730991, 619.0: 0.000537728739145359, 861.0: 1.1990990892844979e-05, 253.0: 8.760769883093081e-09}</t>
   </si>
   <si>
     <t>{889.0: 0.9590857191621841, 565.0: 0.012464778704103075, 494.0: 0.02844950213371266}</t>
@@ -2593,13 +2593,13 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.9950083194675541, 687.0: 0.0035233412670327173, 534.0: 0.00146096186074179, 174.0: 7.377404671415716e-06}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410215, 253.0: 0.0007239065389194394, 490.0: 0.008454872120059184}</t>
-  </si>
-  <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.2218090033472266}</t>
+    <t>{542.0: 0.9950083194675541, 687.0: 0.003530060801112065, 534.0: 0.0014541497986687235, 174.0: 7.469932665135073e-06}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101356, 253.0: 0.0007239000083155152, 490.0: 0.008463817181548879}</t>
+  </si>
+  <si>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.2184317511011622}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
@@ -2611,28 +2611,28 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9925845578271281, 297.0: 0.005990275426909785, 857.0: 0.0014251667459625364}</t>
+    <t>{298.0: 0.9927157970888625, 297.0: 0.005859444871573599, 857.0: 0.0014247580395640633}</t>
   </si>
   <si>
     <t>{921.0: 0.8183024740968304, 686.0: 0.18169752590317012}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854248, 887.0: 0.06836565552205066, 834.0: 6.024199252435389e-05}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9381917012249767, 762.0: 0.05766100708217408, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6029591223004622, 418.0: 0.22677151406745158, 922.0: 0.17018011800462188, 887.0: 8.916705583274729e-05, 834.0: 7.857163176271236e-08}</t>
+    <t>{922.0: 0.9315741024854248, 887.0: 0.06836653174288197, 834.0: 5.936577169307047e-05}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9382762572793439, 762.0: 0.05757645102780743, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6029858983494535, 418.0: 0.22676395094056626, 922.0: 0.17016090508251563, 887.0: 8.916819865850078e-05, 834.0: 7.742880600922179e-08}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{932.0: 0.9982325910215623, 108.0: 0.0017460566474922735, 144.0: 2.1352330945336983e-05}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.44446999318406977, 702.0: 0.5210941826700205, 299.0: 0.03443582414590989}</t>
+    <t>{932.0: 0.9982325910215623, 108.0: 0.0017460566474922729, 144.0: 2.1352330945336983e-05}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.44418159074975416, 702.0: 0.521382585104336, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747106, 5.0: 0.03148289312528854}</t>
@@ -2641,28 +2641,28 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9916176129471715, 171.0: 0.003293328528655216, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5161706511015557, 206.0: 0.4824685312441532, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{593.0: 0.9916176050004197, 171.0: 0.0032933364754076174, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.501426490651451, 206.0: 0.49668232704395954, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.10812454662003079, 848.0: 0.16042594361443507, 707.0: 0.0009136740974718647}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972911, 848.0: 0.1844589262685211, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036867, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382855, 615.0: 0.045862412761714856}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.8804718316280211, 494.0: 0.09724837562586476, 565.0: 0.022279792746113986}</t>
+    <t>{971.0: 0.9930875576036867, 975.0: 0.005883289646722213, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211057, 615.0: 0.046231155778894494}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.8806945378317445, 494.0: 0.09702566942214137, 565.0: 0.022279792746113986}</t>
   </si>
   <si>
     <t>{975.0: 0.9378725155834826, 152.0: 0.06212748441651744}</t>
@@ -2671,7 +2671,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601315, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{782.0: 0.9504155918601315, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.013490241102181402}</t>
@@ -2680,13 +2680,13 @@
     <t>{980.0: 0.9675586784272688, 840.0: 0.03244132157273135}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.404518558364712}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898867, 249.0: 0.007603186097031136, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898883, 599.0: 0.007022471910112361}</t>
+    <t>{990.0: 0.9929775280898883, 599.0: 0.007022471910112355}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372655, 729.0: 0.30492073296273425}</t>
